--- a/biology/Botanique/James_Hennessy/James_Hennessy.xlsx
+++ b/biology/Botanique/James_Hennessy/James_Hennessy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 James-Richard-Charles Hennessy est un officier de marine, cavalier, négociant en cognac et homme politique français né le 26 juillet 1867 à Cherves-de-Cognac (Charente) et mort le 16 mai 1945 à Paris.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Arrière-petit-fils de Jacques Hennessy et frère aîné de Jean Hennessy, James Hennessy sortit diplômé de l'École navale, mena une carrière d'officier de marine et prit sa retraite comme capitaine de corvette, avant de rejoindre et diriger l'entreprise familiale de Cognac. Il s'occupa également d'élevage de chevaux de course avec lesquels il eut le bonheur de remporter le Grand National de Liverpool et le Grand Steeple-Chase de Paris.
 Conseiller général du Canton de Segonzac en 1895, il est également premier adjoint au maire de Cognac (jusqu'en 1929). Député de la Charente de 1906 à 1921 et sénateur de la Charente de 1921 à 1940, il s'intéresse principalement à la viticulture et aux affaires maritimes.
